--- a/datos_terreno_4.xlsx
+++ b/datos_terreno_4.xlsx
@@ -449,7 +449,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="C2" s="1">
         <v>16</v>
